--- a/Resources/datasets_671145_1181305_occupation_salary.xlsx
+++ b/Resources/datasets_671145_1181305_occupation_salary.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandra\LearnPython\GitRepos\ETL_Project\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Foxpro_programs\download_file_maker\final_output_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CC29D65-F933-4047-BC1E-C6229D6A26C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="23820" windowHeight="10110"/>
   </bookViews>
   <sheets>
     <sheet name="national_dl" sheetId="1" r:id="rId1"/>
@@ -7657,7 +7656,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -8201,6 +8200,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -8220,7 +8287,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFBF0"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -8288,23 +8355,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8340,23 +8390,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8532,7 +8565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
